--- a/data/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
+++ b/data/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="9-2-14" sheetId="1" r:id="rId1"/>
     <sheet name="9-3-14" sheetId="2" r:id="rId2"/>
     <sheet name="9-3-14 Trial 2" sheetId="3" r:id="rId3"/>
+    <sheet name="9-22-14 10uL 15 Trials" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
   <si>
     <t>Trial #</t>
   </si>
@@ -59,6 +60,12 @@
   </si>
   <si>
     <t>Percent Error</t>
+  </si>
+  <si>
+    <t>100uL to 1000uL Micropipette Weight of 10uL of Water dispensed (g)</t>
+  </si>
+  <si>
+    <t>Weight of 10uL of Water dispensed (g)</t>
   </si>
 </sst>
 </file>
@@ -94,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,12 +157,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -182,10 +209,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -471,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -494,8 +530,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -592,10 +628,10 @@
       <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -603,8 +639,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -700,10 +736,10 @@
       <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -711,8 +747,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
@@ -822,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C31" sqref="A25:C31"/>
     </sheetView>
   </sheetViews>
@@ -834,10 +870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -845,8 +881,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -930,10 +966,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -941,8 +977,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1026,10 +1062,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1037,8 +1073,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1152,17 +1188,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1223,17 +1259,17 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1294,17 +1330,17 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1374,4 +1410,218 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B3:B12)</f>
+        <v>9.6600000000000019E-3</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C3:C16)</f>
+        <v>1.0214285714285714E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <f>(B18-0.01)*100/0.01</f>
+        <v>-3.399999999999983</v>
+      </c>
+      <c r="C19">
+        <f>(C18-0.01)*100/0.01</f>
+        <v>2.1428571428571375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>